--- a/attachments/Short Answer Q&A Term 3 2024.xlsx
+++ b/attachments/Short Answer Q&A Term 3 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\AFMA\EnergyFinancialMarkets\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COBLENG\Documents\R\EnergyFinancialMarkets\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41A60A7-E2F1-47CB-B93B-7BC5045965A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70744A3-6DEC-448A-9123-AB8D5098DE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{48374B34-B6E2-49DF-8B86-4DCCD7E8133D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48374B34-B6E2-49DF-8B86-4DCCD7E8133D}"/>
   </bookViews>
   <sheets>
     <sheet name="2.prices_BQH2025" sheetId="2" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="71">
   <si>
     <t>Generation capacity</t>
   </si>
@@ -299,17 +299,29 @@
   <si>
     <t>Upper cut-off price</t>
   </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total swap quantity</t>
+  </si>
+  <si>
+    <t>Total VaR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -399,12 +411,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -430,8 +443,11 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -1163,73 +1179,73 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>94.578425284881646</c:v>
+                  <c:v>99.174936753726897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.039177225753335</c:v>
+                  <c:v>99.65808123892495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.499929166625009</c:v>
+                  <c:v>100.14122572412299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.960681107496683</c:v>
+                  <c:v>100.62437020932101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.421433048368357</c:v>
+                  <c:v>101.10751469451905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.882184989240045</c:v>
+                  <c:v>101.59065917971711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.342936930111705</c:v>
+                  <c:v>102.07380366491515</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.803688870983379</c:v>
+                  <c:v>102.55694815011317</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.264440811855053</c:v>
+                  <c:v>103.04009263531121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98.725192752726741</c:v>
+                  <c:v>103.52323712050926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99.185944693598415</c:v>
+                  <c:v>104.0063816057073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>99.646696634470089</c:v>
+                  <c:v>104.48952609090533</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.10744857534178</c:v>
+                  <c:v>104.97267057610338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100.56820051621345</c:v>
+                  <c:v>105.45581506130142</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101.02895245708513</c:v>
+                  <c:v>105.93895954649946</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101.48970439795679</c:v>
+                  <c:v>106.42210403169749</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.95045633882846</c:v>
+                  <c:v>106.90524851689553</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102.41120827970013</c:v>
+                  <c:v>107.38839300209357</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>102.87196022057184</c:v>
+                  <c:v>107.87153748729162</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103.33271216144351</c:v>
+                  <c:v>108.35468197248966</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>103.79346410231518</c:v>
+                  <c:v>108.8378264576877</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>104.25421604318686</c:v>
+                  <c:v>109.32097094288574</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>105</c:v>
+                  <c:v>110.10300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,10 +3382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209D295D-8E1C-4C65-BAC6-4CB36F14097A}">
-  <dimension ref="A1:N255"/>
+  <dimension ref="A1:O255"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="M256" sqref="M256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3380,7 +3396,7 @@
     <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3412,7 +3428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3445,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3478,7 +3494,7 @@
         <v>-1.2212123067361592E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3510,8 +3526,14 @@
         <f>IFERROR(LN(Table1[[#This Row],[settle]]/F3),0)</f>
         <v>-2.0385756924473863E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3550,8 +3572,12 @@
         <f>AVERAGE(Table1[returns])</f>
         <v>-2.8980545993365569E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <f>AVERAGE(Table1[settle])</f>
+        <v>110.82940944881895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -3591,7 +3617,7 @@
         <v>1.3714089513613876E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3624,7 +3650,7 @@
         <v>2.486003731939504E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3664,7 +3690,7 @@
         <v>-5.4215747151183442E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3704,7 +3730,7 @@
         <v>4.2542160431868536E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -3744,7 +3770,7 @@
         <v>9.6757907583051972E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3784,7 +3810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -3817,7 +3843,7 @@
         <v>-1.6524672332297645E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3857,7 +3883,7 @@
         <v>4.607519408716761E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3890,7 +3916,7 @@
         <v>5.0846754149869713E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3929,7 +3955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -11529,7 +11555,7 @@
         <v>-4.4481585714422267E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>34</v>
       </c>
@@ -11562,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -11595,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>34</v>
       </c>
@@ -11628,7 +11654,7 @@
         <v>2.1409371964790515E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>34</v>
       </c>
@@ -11661,7 +11687,7 @@
         <v>1.5783867701261951E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>34</v>
       </c>
@@ -11694,7 +11720,7 @@
         <v>-6.7340321813440683E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>34</v>
       </c>
@@ -11727,7 +11753,7 @@
         <v>-4.5146803545265827E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>34</v>
       </c>
@@ -11760,7 +11786,7 @@
         <v>9.0090699423659108E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>34</v>
       </c>
@@ -11793,7 +11819,7 @@
         <v>3.0907537463076704E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>34</v>
       </c>
@@ -11826,7 +11852,7 @@
         <v>-3.5715879248932087E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -11859,7 +11885,7 @@
         <v>1.4382504029108775E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>34</v>
       </c>
@@ -11892,7 +11918,7 @@
         <v>-1.5168221473171317E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>34</v>
       </c>
@@ -11925,7 +11951,7 @@
         <v>-2.2075951699199847E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>34</v>
       </c>
@@ -11958,7 +11984,7 @@
         <v>-1.6201974576280372E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>34</v>
       </c>
@@ -11991,7 +12017,7 @@
         <v>-3.6363676433838745E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>34</v>
       </c>
@@ -12022,6 +12048,10 @@
       <c r="J255" s="8">
         <f>IFERROR(LN(Table1[[#This Row],[settle]]/F254),0)</f>
         <v>-4.603440193104355E-2</v>
+      </c>
+      <c r="M255">
+        <f>Table1[[#This Row],[settle]]*(1+7.48%)</f>
+        <v>112.70352799999999</v>
       </c>
     </row>
   </sheetData>
@@ -12034,10 +12064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6C002-44D2-4DA0-87C0-83EA4D2A8726}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12078,12 +12108,12 @@
       </c>
       <c r="E2" s="17">
         <f t="shared" ref="E2:E23" si="1">(1+A2)*Current_price</f>
-        <v>94.578425284881646</v>
+        <v>99.174936753726897</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="21">
         <f>Mean</f>
         <v>-2.8980545993365569E-4</v>
       </c>
@@ -12105,12 +12135,12 @@
       </c>
       <c r="E3" s="17">
         <f t="shared" si="1"/>
-        <v>95.039177225753335</v>
+        <v>99.65808123892495</v>
       </c>
       <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="21">
         <f>std_dev</f>
         <v>1.3714089513613876E-2</v>
       </c>
@@ -12132,7 +12162,7 @@
       </c>
       <c r="E4" s="17">
         <f t="shared" si="1"/>
-        <v>95.499929166625009</v>
+        <v>100.14122572412299</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -12159,7 +12189,7 @@
       </c>
       <c r="E5" s="17">
         <f t="shared" si="1"/>
-        <v>95.960681107496683</v>
+        <v>100.62437020932101</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
@@ -12186,7 +12216,7 @@
       </c>
       <c r="E6" s="17">
         <f t="shared" si="1"/>
-        <v>96.421433048368357</v>
+        <v>101.10751469451905</v>
       </c>
       <c r="G6" t="s">
         <v>64</v>
@@ -12213,7 +12243,7 @@
       </c>
       <c r="E7" s="17">
         <f t="shared" si="1"/>
-        <v>96.882184989240045</v>
+        <v>101.59065917971711</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -12242,7 +12272,7 @@
       </c>
       <c r="E8" s="17">
         <f t="shared" si="1"/>
-        <v>97.342936930111705</v>
+        <v>102.07380366491515</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
@@ -12268,14 +12298,14 @@
       </c>
       <c r="E9" s="17">
         <f t="shared" si="1"/>
-        <v>97.803688870983379</v>
+        <v>102.55694815011317</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
       </c>
       <c r="H9">
-        <f>H4*SQRT(h/Days_in_year)</f>
-        <v>0.47160684229411909</v>
+        <f>SQRT(h)</f>
+        <v>5.4772255750516612</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -12295,7 +12325,7 @@
       </c>
       <c r="E10" s="17">
         <f t="shared" si="1"/>
-        <v>98.264440811855053</v>
+        <v>103.04009263531121</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -12315,14 +12345,14 @@
       </c>
       <c r="E11" s="17">
         <f t="shared" si="1"/>
-        <v>98.725192752726741</v>
+        <v>103.52323712050926</v>
       </c>
       <c r="G11" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="14">
         <f>H2-H3*H9</f>
-        <v>-6.7574639103879872E-3</v>
+        <v>-7.5404967282447374E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -12342,14 +12372,14 @@
       </c>
       <c r="E12" s="17">
         <f t="shared" si="1"/>
-        <v>99.185944693598415</v>
+        <v>104.0063816057073</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
       </c>
       <c r="H12" s="13">
         <f>H2+H3*H9</f>
-        <v>6.1778529905206752E-3</v>
+        <v>7.4825356362580073E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -12369,7 +12399,7 @@
       </c>
       <c r="E13" s="17">
         <f t="shared" si="1"/>
-        <v>99.646696634470089</v>
+        <v>104.48952609090533</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
@@ -12398,7 +12428,7 @@
       </c>
       <c r="E14" s="17">
         <f t="shared" si="1"/>
-        <v>100.10744857534178</v>
+        <v>104.97267057610338</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -12418,7 +12448,7 @@
       </c>
       <c r="E15" s="17">
         <f t="shared" si="1"/>
-        <v>100.56820051621345</v>
+        <v>105.45581506130142</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -12438,7 +12468,7 @@
       </c>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
-        <v>101.02895245708513</v>
+        <v>105.93895954649946</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -12467,7 +12497,11 @@
       </c>
       <c r="E17" s="17">
         <f t="shared" si="1"/>
-        <v>101.48970439795679</v>
+        <v>106.42210403169749</v>
+      </c>
+      <c r="H17">
+        <f>h*H19</f>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -12487,7 +12521,7 @@
       </c>
       <c r="E18" s="17">
         <f t="shared" si="1"/>
-        <v>101.95045633882846</v>
+        <v>106.90524851689553</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -12513,7 +12547,7 @@
       </c>
       <c r="E19" s="17">
         <f t="shared" si="1"/>
-        <v>102.41120827970013</v>
+        <v>107.38839300209357</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -12539,7 +12573,7 @@
       </c>
       <c r="E20" s="17">
         <f t="shared" si="1"/>
-        <v>102.87196022057184</v>
+        <v>107.87153748729162</v>
       </c>
       <c r="G20" t="s">
         <v>57</v>
@@ -12566,7 +12600,7 @@
       </c>
       <c r="E21" s="17">
         <f t="shared" si="1"/>
-        <v>103.33271216144351</v>
+        <v>108.35468197248966</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -12586,7 +12620,7 @@
       </c>
       <c r="E22" s="17">
         <f t="shared" si="1"/>
-        <v>103.79346410231518</v>
+        <v>108.8378264576877</v>
       </c>
       <c r="G22" t="s">
         <v>58</v>
@@ -12613,7 +12647,7 @@
       </c>
       <c r="E23" s="17">
         <f t="shared" si="1"/>
-        <v>104.25421604318686</v>
+        <v>109.32097094288574</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -12633,13 +12667,13 @@
       </c>
       <c r="E24" s="17">
         <f>(1+0.05)*Current_price</f>
-        <v>105</v>
+        <v>110.10300000000001</v>
       </c>
       <c r="G24" t="s">
         <v>53</v>
       </c>
       <c r="H24" s="15">
-        <v>100</v>
+        <v>104.86</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>4</v>
@@ -12655,7 +12689,7 @@
       </c>
       <c r="H25" s="16">
         <f>H24*(1+H11)</f>
-        <v>99.3242536089612</v>
+        <v>96.953035130762572</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -12669,16 +12703,33 @@
       </c>
       <c r="H27" s="5">
         <f>(Strike_price-Current_price)*H22</f>
-        <v>21600</v>
+        <v>18100.8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="16">
         <f>(Current_price-Strike_price)*H22</f>
-        <v>-21600</v>
+        <v>-18100.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="22">
+        <f>H28*H30</f>
+        <v>-18100800</v>
       </c>
     </row>
   </sheetData>
@@ -12695,7 +12746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD15754D-DECD-4F06-B1D9-8A219DA0ADD0}">
   <dimension ref="A3:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
